--- a/Mifos Automation Excels/Client/4588-RBI-DISBLOANON02JAN-SPDUEDATEFEE05Jan-INDCOLLSHEETON10JAN.xlsx
+++ b/Mifos Automation Excels/Client/4588-RBI-DISBLOANON02JAN-SPDUEDATEFEE05Jan-INDCOLLSHEETON10JAN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,11 +735,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -1398,14 +1401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
